--- a/数据库设计表.xlsx
+++ b/数据库设计表.xlsx
@@ -16,12 +16,5152 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>美女tags</t>
   </si>
   <si>
+    <r>
+      <t>气质女神</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>清纯美女</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>小清新</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>淑女</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>辣妹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>甜心美女</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>白皙肤色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>茶色皮肤</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>AKB48</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>少女时代</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>早安少女组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SDN48</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HKT48</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SKE48</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dream Girls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F90天团</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G☆Girls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>惠比寿麝香葡萄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>螺旋猫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>36D天团</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Showgirl</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>萝莉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>美少女</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>御姐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>熟女</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>美腿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>美臀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>平胸妹纸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>骨感美女</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>童颜巨乳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>波涛汹涌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>人间胸器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>大耳朵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G奶女神</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>小虎牙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>美人痣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>美唇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>小酒窝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>丹凤眼</t>
+    </r>
+  </si>
+  <si>
+    <t>所属国家</t>
+  </si>
+  <si>
+    <r>
+      <t>内地女神</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>香港女神</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>台湾正妹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>澳门美女</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>日本女优</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>韩国美女</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>泰国女星</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>新加坡美女</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>大马美女</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>混血女神</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>亚洲女神</t>
+    </r>
+  </si>
+  <si>
+    <t>身份所属</t>
+  </si>
+  <si>
+    <r>
+      <t>演员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>校花</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>空姐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>教师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>海归</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cosplayer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>学生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>嫩模</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>淘女郎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>舞蹈家</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>啦啦队</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>企业家</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>高学历</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>近视</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>左撇子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>整容</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>假胸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>人妖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>足球宝贝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>模特&amp;麻豆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>配音&amp;声优</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>主播&amp;主持人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>车模&amp;赛车女郎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>纹身&amp;刺青</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>瑜伽教练</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>芭比娃娃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>选美小姐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>书法美女</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>美女作家</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>网络美女</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>写真女优</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>体坛美女</t>
+    </r>
+  </si>
+  <si>
+    <t>美女项目</t>
+  </si>
+  <si>
+    <t>封面img</t>
+  </si>
+  <si>
+    <t>个人资料</t>
+  </si>
+  <si>
+    <t>年 龄</t>
+  </si>
+  <si>
+    <t>生 日</t>
+  </si>
+  <si>
+    <t>星 座</t>
+  </si>
+  <si>
+    <t>身 高</t>
+  </si>
+  <si>
+    <t>体 重</t>
+  </si>
+  <si>
+    <t>三 围</t>
+  </si>
+  <si>
+    <t>出 生</t>
+  </si>
+  <si>
+    <t>职 业</t>
+  </si>
+  <si>
+    <t>兴 趣</t>
+  </si>
+  <si>
+    <t>评分</t>
+  </si>
+  <si>
+    <t>详 细 资 料</t>
+  </si>
+  <si>
+    <t>女 神 图 集</t>
+  </si>
+  <si>
     <t>图集tags</t>
+  </si>
+  <si>
+    <r>
+      <t>沙滩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>泳池</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>户外</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>街拍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>家居</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>圣诞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>春节</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>沙漠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>私房照</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>浴室</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>浴缸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>温泉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>雪地</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>萝莉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>空姐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>女神</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>秘书</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>女兵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>警花</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>厨娘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>教师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>女仆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>尤物</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>姐妹花</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>娇小萝莉</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>湿身</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>蜜桃臀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>骨感</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>极品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>美腿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>波涛胸涌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>人间胸器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>童颜巨乳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>肉感</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>白嫩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>美臀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>玉足</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>丁字裤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>黑丝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>高跟鞋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>丝袜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>旗袍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>制服</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>角色扮演</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>香肩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>玉背</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>肚兜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>汉服</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和服</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>比基尼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>内衣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>校服</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>眼镜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>水手服</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>开背毛衣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>小麦色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>双马尾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>纹身</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>清新</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>萌系</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>治愈系</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>清纯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>气质</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>性感</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>冷艳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>野性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>诱惑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>养眼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>大尺度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>妩媚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>成熟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>可爱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>运动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>知性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>非主流</t>
+    </r>
+  </si>
+  <si>
+    <t>图集归档</t>
+  </si>
+  <si>
+    <r>
+      <t>雅拉伊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>阳光宝贝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>秀人网</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>美媛馆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>爱蜜社</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>魅妍社</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>模范学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>尤蜜荟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>蜜桃社</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>尤物馆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>御女郎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>嗲囡囡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>瑞丝馆 (猫萌榜)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>网红馆(糖果画报)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>优星馆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>影私荟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>语画界</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>花の颜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>星乐园</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>顽味生活</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>花漾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>星颜社</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>尤果网</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>尤果圈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>优果网</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>推女神</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>推女郎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>波萝社</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>激萌文化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>兔几盟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>青豆客</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>果团网</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>熊川纪信</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>熊薄荷叶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>头条女神</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>飞图网</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>尤美</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>蜜团女孩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>蜜丝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>轰趴猫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>猎女神</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>克拉女神</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>51modo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RQ-STAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>YS-Web</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DGC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bomb.tv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@misty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sabra.net</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4K-STAR</t>
+    </r>
+  </si>
+  <si>
+    <t>欧洲美国</t>
+  </si>
+  <si>
+    <r>
+      <t>美国</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>俄罗斯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>乌克兰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>英国</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>法国</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>德国</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>意大利</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>西班牙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>荷兰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>捷克</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>丹麦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>土耳其</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>瑞典</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>葡萄牙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>希腊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>爱尔兰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>挪威</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>加拿大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>波兰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>塞尔维亚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>奥地利</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>比利时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>波黑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>白俄罗斯</t>
+    </r>
+  </si>
+  <si>
+    <t>亚洲日韩</t>
+  </si>
+  <si>
+    <r>
+      <t>亚洲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>日韩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>日本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>韩国</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>伊朗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>新加坡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>以色列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中国内地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中国台湾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中国香港</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中国澳门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>马来西亚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>越南</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>泰国</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>菲律宾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>印度</t>
+    </r>
+  </si>
+  <si>
+    <t>美洲巴西</t>
+  </si>
+  <si>
+    <r>
+      <t>巴西</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>哥伦比亚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>委内瑞拉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>墨西哥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>阿根廷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>智利</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>古巴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>波多黎各</t>
+    </r>
+  </si>
+  <si>
+    <t>大洋洲非洲</t>
+  </si>
+  <si>
+    <r>
+      <t>澳大利亚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>南非</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>新西兰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>混血</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>欧美</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>非洲</t>
+    </r>
+  </si>
+  <si>
+    <t>图集项目</t>
+  </si>
+  <si>
+    <t>标题</t>
+  </si>
+  <si>
+    <t>图集介绍</t>
+  </si>
+  <si>
+    <t>图集id</t>
+  </si>
+  <si>
+    <t>图集图片</t>
+  </si>
+  <si>
+    <t>图片url1</t>
+  </si>
+  <si>
+    <t>图片url2</t>
+  </si>
+  <si>
+    <t>图片url3</t>
   </si>
 </sst>
 </file>
@@ -31,8 +5171,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -43,15 +5183,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -60,13 +5202,35 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -88,59 +5252,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -149,22 +5260,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,10 +5283,55 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -203,43 +5344,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,25 +5434,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,55 +5506,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,43 +5518,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,26 +5538,37 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -448,8 +5600,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -468,185 +5635,171 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -996,22 +6149,257 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D4:D17"/>
+  <dimension ref="D4:R66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="4" spans="4:4">
-      <c r="D4" t="s">
+    <row r="4" ht="14.25" spans="4:4">
+      <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="4:4">
-      <c r="D17" t="s">
+    <row r="6" spans="4:4">
+      <c r="D6" s="2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4">
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4">
+      <c r="D8" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4">
+      <c r="D10" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4">
+      <c r="D11" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="4:4">
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="4:4">
+      <c r="D14" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" spans="4:4">
+      <c r="D17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="4:18">
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" t="s">
+        <v>17</v>
+      </c>
+      <c r="N19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O19" t="s">
+        <v>19</v>
+      </c>
+      <c r="P19" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>21</v>
+      </c>
+      <c r="R19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6">
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="5:6">
+      <c r="E22" s="3"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="5:6">
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="5:6">
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="5:6">
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="5:6">
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="5:6">
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="5:6">
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="5:6">
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="35" ht="14.25" spans="4:4">
+      <c r="D35" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4">
+      <c r="D37" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4">
+      <c r="D38" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4">
+      <c r="D39" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4">
+      <c r="D40" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4">
+      <c r="D42" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4">
+      <c r="D43" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4">
+      <c r="D45" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4">
+      <c r="D46" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="4:4">
+      <c r="D48" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4">
+      <c r="D49" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4">
+      <c r="D51" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4">
+      <c r="D52" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4">
+      <c r="D54" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4">
+      <c r="D55" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" ht="14.25" spans="4:4">
+      <c r="D58" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="4:8">
+      <c r="D60" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" t="s">
+        <v>39</v>
+      </c>
+      <c r="F60" t="s">
+        <v>23</v>
+      </c>
+      <c r="G60" t="s">
+        <v>40</v>
+      </c>
+      <c r="H60" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" ht="14.25" spans="4:4">
+      <c r="D63" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="4:4">
+      <c r="D64" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4">
+      <c r="D65" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4">
+      <c r="D66" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/数据库设计表.xlsx
+++ b/数据库设计表.xlsx
@@ -16,12 +16,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>美女tags</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>气质女神</t>
     </r>
     <r>
@@ -167,6 +174,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>AKB48</t>
     </r>
     <r>
@@ -412,6 +426,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>萝莉</t>
     </r>
     <r>
@@ -760,6 +781,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>内地女神</t>
     </r>
     <r>
@@ -968,6 +996,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>演员</t>
     </r>
     <r>
@@ -1661,6 +1696,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>沙滩</t>
     </r>
     <r>
@@ -1906,6 +1948,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>萝莉</t>
     </r>
     <r>
@@ -2151,6 +2200,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>湿身</t>
     </r>
     <r>
@@ -2796,6 +2852,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>清新</t>
     </r>
     <r>
@@ -3124,6 +3187,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>雅拉伊</t>
     </r>
     <r>
@@ -4112,6 +4182,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>美国</t>
     </r>
     <r>
@@ -4580,6 +4657,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>亚洲</t>
     </r>
     <r>
@@ -4888,6 +4972,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>巴西</t>
     </r>
     <r>
@@ -5036,6 +5127,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>澳大利亚</t>
     </r>
     <r>
@@ -5163,6 +5261,15 @@
   <si>
     <t>图片url3</t>
   </si>
+  <si>
+    <t>最新情报</t>
+  </si>
+  <si>
+    <t>发布日期</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
 </sst>
 </file>
 
@@ -5170,9 +5277,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -5191,16 +5298,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5215,6 +5329,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -5222,7 +5343,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5236,62 +5388,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5312,16 +5410,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5344,19 +5451,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5374,13 +5517,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5392,13 +5541,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5410,13 +5583,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5428,7 +5613,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5440,91 +5631,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5535,6 +5642,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -5553,11 +5684,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5569,30 +5706,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5621,17 +5734,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5643,10 +5750,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5655,133 +5762,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6149,10 +6256,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D4:R66"/>
+  <dimension ref="D4:R70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6402,6 +6509,22 @@
         <v>45</v>
       </c>
     </row>
+    <row r="69" spans="4:4">
+      <c r="D69" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="70" spans="4:6">
+      <c r="D70" t="s">
+        <v>39</v>
+      </c>
+      <c r="E70" t="s">
+        <v>47</v>
+      </c>
+      <c r="F70" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/数据库设计表.xlsx
+++ b/数据库设计表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
   <si>
     <t>美女tags</t>
   </si>
@@ -1653,7 +1653,7 @@
     <t>封面img</t>
   </si>
   <si>
-    <t>个人资料</t>
+    <t>姓名</t>
   </si>
   <si>
     <t>年 龄</t>
@@ -1689,7 +1689,19 @@
     <t>详 细 资 料</t>
   </si>
   <si>
-    <t>女 神 图 集</t>
+    <t>图 集ID</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>修改时间</t>
+  </si>
+  <si>
+    <t>多对多</t>
+  </si>
+  <si>
+    <t>图集相对人来说是多对一</t>
   </si>
   <si>
     <t>图集tags</t>
@@ -5239,6 +5251,12 @@
   </si>
   <si>
     <t>图集项目</t>
+  </si>
+  <si>
+    <t>图片表</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>标题</t>
@@ -5247,10 +5265,7 @@
     <t>图集介绍</t>
   </si>
   <si>
-    <t>图集id</t>
-  </si>
-  <si>
-    <t>图集图片</t>
+    <t>图片表的ID</t>
   </si>
   <si>
     <t>图片url1</t>
@@ -5260,6 +5275,9 @@
   </si>
   <si>
     <t>图片url3</t>
+  </si>
+  <si>
+    <t>外键</t>
   </si>
   <si>
     <t>最新情报</t>
@@ -5276,8 +5294,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -5306,15 +5324,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5329,14 +5339,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5350,15 +5360,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5372,9 +5382,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5382,14 +5407,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5410,25 +5428,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5441,8 +5451,16 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5451,25 +5469,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5481,25 +5511,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5517,37 +5529,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5559,31 +5553,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5595,7 +5583,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5613,25 +5601,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5642,21 +5666,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -5684,17 +5693,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5713,8 +5716,38 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5733,15 +5766,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -5750,10 +5774,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5762,137 +5786,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5901,6 +5925,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -6256,273 +6283,304 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D4:R70"/>
+  <dimension ref="D1:T58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="O51" sqref="O51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="9" max="9" width="11.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" ht="14.25" spans="4:4">
-      <c r="D4" s="1" t="s">
+    <row r="1" ht="14.25" spans="4:4">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="4:4">
-      <c r="D6" s="2" t="s">
+    <row r="3" spans="4:4">
+      <c r="D3" s="2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="4:4">
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4">
+      <c r="D5" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="13" spans="4:4">
-      <c r="D13" s="2" t="s">
-        <v>6</v>
+    <row r="14" ht="14.25" spans="4:4">
+      <c r="D14" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="14" spans="4:4">
-      <c r="D14" s="2" t="s">
-        <v>7</v>
+    <row r="16" spans="4:20">
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" t="s">
+        <v>16</v>
+      </c>
+      <c r="M16" t="s">
+        <v>17</v>
+      </c>
+      <c r="N16" t="s">
+        <v>18</v>
+      </c>
+      <c r="O16" t="s">
+        <v>19</v>
+      </c>
+      <c r="P16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>21</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S16" t="s">
+        <v>23</v>
+      </c>
+      <c r="T16" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="4:4">
-      <c r="D17" s="1" t="s">
-        <v>8</v>
+    <row r="17" spans="5:18">
+      <c r="E17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="19" spans="4:18">
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" t="s">
+    <row r="18" spans="5:18">
+      <c r="E18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19" t="s">
-        <v>13</v>
-      </c>
-      <c r="J19" t="s">
-        <v>14</v>
-      </c>
-      <c r="K19" t="s">
-        <v>15</v>
-      </c>
-      <c r="L19" t="s">
-        <v>16</v>
-      </c>
-      <c r="M19" t="s">
-        <v>17</v>
-      </c>
-      <c r="N19" t="s">
-        <v>18</v>
-      </c>
-      <c r="O19" t="s">
-        <v>19</v>
-      </c>
-      <c r="P19" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>21</v>
-      </c>
+      <c r="F18" s="4"/>
+      <c r="R18" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="5:18">
+      <c r="E19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="5"/>
       <c r="R19" t="s">
-        <v>22</v>
-      </c>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6">
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" spans="5:6">
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="5:6">
-      <c r="E22" s="3"/>
-      <c r="F22" s="4"/>
+    <row r="23" ht="14.25" spans="4:4">
+      <c r="D23" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="23" spans="5:6">
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+    <row r="25" spans="4:4">
+      <c r="D25" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="24" spans="5:6">
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+    <row r="26" spans="4:4">
+      <c r="D26" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="25" spans="5:6">
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+    <row r="27" spans="4:4">
+      <c r="D27" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="26" spans="5:6">
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+    <row r="28" spans="4:4">
+      <c r="D28" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="27" spans="5:6">
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+    <row r="30" spans="4:4">
+      <c r="D30" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="28" spans="5:6">
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+    <row r="31" spans="4:4">
+      <c r="D31" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="29" spans="5:6">
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+    <row r="33" spans="4:4">
+      <c r="D33" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="35" ht="14.25" spans="4:4">
-      <c r="D35" s="1" t="s">
-        <v>23</v>
+    <row r="34" spans="4:4">
+      <c r="D34" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4">
+      <c r="D36" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="4:4">
       <c r="D37" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="4:4">
-      <c r="D38" s="2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="4:4">
       <c r="D39" s="2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="4:4">
       <c r="D40" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="4:4">
       <c r="D42" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="4:4">
       <c r="D43" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="45" spans="4:4">
-      <c r="D45" s="2" t="s">
-        <v>30</v>
+    <row r="46" ht="14.25" spans="4:15">
+      <c r="D46" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L46" s="1"/>
+      <c r="O46" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="46" spans="4:4">
-      <c r="D46" s="2" t="s">
-        <v>31</v>
+    <row r="48" spans="4:15">
+      <c r="D48" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" t="s">
+        <v>45</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J48" t="s">
+        <v>10</v>
+      </c>
+      <c r="K48" t="s">
+        <v>23</v>
+      </c>
+      <c r="L48" t="s">
+        <v>24</v>
+      </c>
+      <c r="M48"/>
+      <c r="O48" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="48" spans="4:4">
-      <c r="D48" s="2" t="s">
-        <v>32</v>
+    <row r="49" spans="7:15">
+      <c r="G49" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O49" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="49" spans="4:4">
-      <c r="D49" s="2" t="s">
-        <v>33</v>
+    <row r="50" spans="7:15">
+      <c r="G50" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O50" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="51" spans="4:4">
-      <c r="D51" s="2" t="s">
-        <v>34</v>
+    <row r="51" spans="7:15">
+      <c r="G51" t="s">
+        <v>25</v>
+      </c>
+      <c r="O51" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="52" spans="4:4">
-      <c r="D52" s="2" t="s">
-        <v>35</v>
+    <row r="57" spans="4:4">
+      <c r="D57" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="54" spans="4:4">
-      <c r="D54" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="55" spans="4:4">
-      <c r="D55" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="58" ht="14.25" spans="4:4">
-      <c r="D58" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="60" spans="4:8">
-      <c r="D60" t="s">
-        <v>9</v>
-      </c>
-      <c r="E60" t="s">
-        <v>39</v>
-      </c>
-      <c r="F60" t="s">
-        <v>23</v>
-      </c>
-      <c r="G60" t="s">
-        <v>40</v>
-      </c>
-      <c r="H60" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="63" ht="14.25" spans="4:4">
-      <c r="D63" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="64" spans="4:4">
-      <c r="D64" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="65" spans="4:4">
-      <c r="D65" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="66" spans="4:4">
-      <c r="D66" t="s">
+    <row r="58" spans="4:6">
+      <c r="D58" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="69" spans="4:4">
-      <c r="D69" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="70" spans="4:6">
-      <c r="D70" t="s">
-        <v>39</v>
-      </c>
-      <c r="E70" t="s">
-        <v>47</v>
-      </c>
-      <c r="F70" t="s">
-        <v>48</v>
+      <c r="E58" t="s">
+        <v>53</v>
+      </c>
+      <c r="F58" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/数据库设计表.xlsx
+++ b/数据库设计表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="60">
   <si>
     <t>美女tags</t>
   </si>
@@ -5256,7 +5256,7 @@
     <t>图片表</t>
   </si>
   <si>
-    <t>ID</t>
+    <t>浏览次数</t>
   </si>
   <si>
     <t>标题</t>
@@ -5268,7 +5268,19 @@
     <t>图片表的ID</t>
   </si>
   <si>
+    <t>下载链接</t>
+  </si>
+  <si>
+    <t>下载密码</t>
+  </si>
+  <si>
+    <t>支付成功</t>
+  </si>
+  <si>
     <t>图片url1</t>
+  </si>
+  <si>
+    <t>和图片表是外键的关系</t>
   </si>
   <si>
     <t>图片url2</t>
@@ -5288,15 +5300,18 @@
   <si>
     <t>内容</t>
   </si>
+  <si>
+    <t>缩略图</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -5316,6 +5331,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -5324,22 +5377,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5353,14 +5391,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5368,7 +5399,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5399,30 +5430,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5446,17 +5461,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -5475,7 +5490,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5487,7 +5586,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5499,49 +5628,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5553,37 +5646,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5595,67 +5670,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5669,26 +5684,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5696,8 +5702,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5713,6 +5719,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -5722,17 +5743,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5753,16 +5768,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5774,10 +5789,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5786,19 +5801,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5807,112 +5822,112 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6283,10 +6298,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D1:T58"/>
+  <dimension ref="D1:T59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="O51" sqref="O51"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="O48" sqref="O48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6501,16 +6516,16 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" ht="14.25" spans="4:15">
+    <row r="46" ht="14.25" spans="4:17">
       <c r="D46" s="1" t="s">
         <v>42</v>
       </c>
       <c r="L46" s="1"/>
-      <c r="O46" s="1" t="s">
+      <c r="Q46" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="4:15">
+    <row r="48" spans="4:17">
       <c r="D48" t="s">
         <v>44</v>
       </c>
@@ -6538,49 +6553,63 @@
       <c r="L48" t="s">
         <v>24</v>
       </c>
-      <c r="M48"/>
+      <c r="M48" t="s">
+        <v>48</v>
+      </c>
+      <c r="N48" t="s">
+        <v>49</v>
+      </c>
       <c r="O48" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="49" spans="7:15">
+    <row r="49" spans="7:17">
       <c r="G49" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O49" t="s">
-        <v>49</v>
+      <c r="I49" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="50" spans="7:15">
+    <row r="50" spans="7:17">
       <c r="G50" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O50" t="s">
-        <v>50</v>
+      <c r="Q50" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="51" spans="7:15">
+    <row r="51" spans="7:17">
       <c r="G51" t="s">
         <v>25</v>
       </c>
-      <c r="O51" t="s">
-        <v>51</v>
+      <c r="Q51" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="57" spans="4:4">
-      <c r="D57" t="s">
-        <v>52</v>
+    <row r="57" ht="14.25" spans="4:4">
+      <c r="D57" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="58" spans="4:6">
-      <c r="D58" t="s">
+    <row r="59" spans="4:7">
+      <c r="D59" t="s">
         <v>45</v>
       </c>
-      <c r="E58" t="s">
-        <v>53</v>
-      </c>
-      <c r="F58" t="s">
-        <v>54</v>
+      <c r="E59" t="s">
+        <v>57</v>
+      </c>
+      <c r="F59" t="s">
+        <v>58</v>
+      </c>
+      <c r="G59" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/数据库设计表.xlsx
+++ b/数据库设计表.xlsx
@@ -5274,7 +5274,7 @@
     <t>下载密码</t>
   </si>
   <si>
-    <t>支付成功</t>
+    <t>价格</t>
   </si>
   <si>
     <t>图片url1</t>
@@ -5309,9 +5309,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -5331,58 +5331,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -5397,9 +5345,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5429,8 +5391,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5460,14 +5468,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -5490,7 +5490,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5502,13 +5562,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5520,157 +5664,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5681,6 +5681,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -5703,18 +5712,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5736,9 +5734,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5746,8 +5746,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5789,10 +5789,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5801,133 +5801,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6300,7 +6300,7 @@
   <sheetPr/>
   <dimension ref="D1:T59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O48" sqref="O48"/>
     </sheetView>
   </sheetViews>
@@ -6516,16 +6516,16 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" ht="14.25" spans="4:17">
+    <row r="46" ht="14.25" spans="4:20">
       <c r="D46" s="1" t="s">
         <v>42</v>
       </c>
       <c r="L46" s="1"/>
-      <c r="Q46" s="1" t="s">
+      <c r="T46" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="4:17">
+    <row r="48" spans="4:20">
       <c r="D48" t="s">
         <v>44</v>
       </c>
@@ -6562,34 +6562,34 @@
       <c r="O48" t="s">
         <v>50</v>
       </c>
-      <c r="Q48" t="s">
+      <c r="T48" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="7:17">
+    <row r="49" spans="7:20">
       <c r="G49" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I49" t="s">
         <v>52</v>
       </c>
-      <c r="Q49" t="s">
+      <c r="T49" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="7:17">
+    <row r="50" spans="7:20">
       <c r="G50" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Q50" t="s">
+      <c r="T50" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="7:17">
+    <row r="51" spans="7:20">
       <c r="G51" t="s">
         <v>25</v>
       </c>
-      <c r="Q51" t="s">
+      <c r="T51" t="s">
         <v>55</v>
       </c>
     </row>
